--- a/docs/25pol Sub-D Belegung.xlsx
+++ b/docs/25pol Sub-D Belegung.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c378eabe2b9b4f78/12 X-Plane/Teensy/MOSAM/src/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c378eabe2b9b4f78/12 X-Plane/Teensy/MOSAM/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51EAFE76-556F-4E62-8F31-D177D1543D63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{51EAFE76-556F-4E62-8F31-D177D1543D63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9C58060-CDC4-6B48-A65D-AB067815E98C}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="2120" windowWidth="28800" windowHeight="15370" xr2:uid="{96D6205A-40B6-4C83-AEEE-26A4D07F9880}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="34560" windowHeight="20480" xr2:uid="{96D6205A-40B6-4C83-AEEE-26A4D07F9880}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -236,12 +236,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -271,12 +277,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -615,19 +624,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90B2104E-7003-4FAE-A0AD-6B5DE3C8C7D5}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="270" zoomScaleNormal="270" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1"/>
-    <col min="2" max="2" width="14.08984375" customWidth="1"/>
-    <col min="3" max="3" width="20.36328125" customWidth="1"/>
-    <col min="4" max="4" width="29.26953125" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -641,7 +650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -655,7 +664,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -669,7 +678,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -681,7 +690,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -695,7 +704,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -707,7 +716,7 @@
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -719,7 +728,7 @@
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -731,7 +740,7 @@
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -743,7 +752,7 @@
       </c>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -755,7 +764,7 @@
       </c>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -767,7 +776,7 @@
       </c>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -781,7 +790,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -795,7 +804,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -807,8 +816,8 @@
       </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="1">
+    <row r="15" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="2">
@@ -819,7 +828,7 @@
       </c>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -831,7 +840,7 @@
       </c>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -845,7 +854,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -857,7 +866,7 @@
       </c>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -869,7 +878,7 @@
       </c>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -881,7 +890,7 @@
       </c>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -893,7 +902,7 @@
       </c>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -905,7 +914,7 @@
       </c>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -917,7 +926,7 @@
       </c>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -929,7 +938,7 @@
       </c>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -943,7 +952,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>

--- a/docs/25pol Sub-D Belegung.xlsx
+++ b/docs/25pol Sub-D Belegung.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c378eabe2b9b4f78/12 X-Plane/Teensy/MOSAM/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{51EAFE76-556F-4E62-8F31-D177D1543D63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9C58060-CDC4-6B48-A65D-AB067815E98C}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="8_{51EAFE76-556F-4E62-8F31-D177D1543D63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0EEAB45B-B6C4-4FDD-9EC6-ABAD77A6475E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="34560" windowHeight="20480" xr2:uid="{96D6205A-40B6-4C83-AEEE-26A4D07F9880}"/>
+    <workbookView xWindow="57480" yWindow="10560" windowWidth="29040" windowHeight="15720" xr2:uid="{96D6205A-40B6-4C83-AEEE-26A4D07F9880}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Sub-D</t>
   </si>
@@ -209,12 +209,51 @@
   <si>
     <t>Nur für Beleuchtung!</t>
   </si>
+  <si>
+    <t>lohi funktioniert, schaltet aber im Flieger nicht</t>
+  </si>
+  <si>
+    <t>funktioniert nicht lohi</t>
+  </si>
+  <si>
+    <t>funzt, logic stimmt nicht ganz bei ein/aus/ein</t>
+  </si>
+  <si>
+    <t>perfekt</t>
+  </si>
+  <si>
+    <t>LED-Dim mit Dome-Schalter funkzt nicht</t>
+  </si>
+  <si>
+    <t>schaltet richtig</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="8"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">14  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>18</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,8 +274,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="8"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -245,7 +291,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -277,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
@@ -285,7 +361,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -303,6 +394,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -622,21 +717,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90B2104E-7003-4FAE-A0AD-6B5DE3C8C7D5}">
-  <dimension ref="A1:D26"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="270" zoomScaleNormal="270" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10.6328125" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" customWidth="1"/>
+    <col min="3" max="3" width="20.36328125" customWidth="1"/>
+    <col min="4" max="4" width="29.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -650,7 +748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -664,7 +762,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -678,119 +776,143 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F4" s="3"/>
+      <c r="G4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="2">
         <v>16</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F5" s="4"/>
+      <c r="G5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="2">
         <v>17</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F6" s="6"/>
+      <c r="G6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="2">
         <v>19</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="8"/>
+      <c r="G7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="2">
         <v>20</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="2">
         <v>21</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="2">
         <v>22</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:11" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="2">
         <v>24</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="2">
         <v>25</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F12" s="9"/>
+      <c r="G12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -804,7 +926,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -816,19 +938,19 @@
       </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+    <row r="15" spans="1:11" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="2">
         <v>29</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -839,8 +961,9 @@
         <v>24</v>
       </c>
       <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K16" s="9"/>
+    </row>
+    <row r="17" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -854,7 +977,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -866,19 +989,19 @@
       </c>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="2">
         <v>35</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -890,7 +1013,7 @@
       </c>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -902,7 +1025,7 @@
       </c>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -914,7 +1037,7 @@
       </c>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -926,7 +1049,7 @@
       </c>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -938,7 +1061,7 @@
       </c>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -952,7 +1075,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -968,5 +1091,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="86" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/25pol Sub-D Belegung.xlsx
+++ b/docs/25pol Sub-D Belegung.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c378eabe2b9b4f78/12 X-Plane/Teensy/MOSAM/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="8_{51EAFE76-556F-4E62-8F31-D177D1543D63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0EEAB45B-B6C4-4FDD-9EC6-ABAD77A6475E}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="8_{51EAFE76-556F-4E62-8F31-D177D1543D63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A266C692-EC2D-7344-8496-8C95D26D3252}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="10560" windowWidth="29040" windowHeight="15720" xr2:uid="{96D6205A-40B6-4C83-AEEE-26A4D07F9880}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="34560" windowHeight="20480" xr2:uid="{96D6205A-40B6-4C83-AEEE-26A4D07F9880}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Sub-D</t>
   </si>
@@ -223,9 +223,6 @@
   </si>
   <si>
     <t>LED-Dim mit Dome-Schalter funkzt nicht</t>
-  </si>
-  <si>
-    <t>schaltet richtig</t>
   </si>
   <si>
     <r>
@@ -722,19 +719,19 @@
   </sheetPr>
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1"/>
-    <col min="2" max="2" width="14.1796875" customWidth="1"/>
-    <col min="3" max="3" width="20.36328125" customWidth="1"/>
-    <col min="4" max="4" width="29.36328125" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -748,7 +745,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -762,7 +759,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -776,12 +773,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>9</v>
@@ -792,7 +789,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -810,7 +807,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -826,7 +823,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -842,7 +839,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -854,7 +851,7 @@
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -869,7 +866,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -882,7 +879,7 @@
       <c r="D10" s="2"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:11" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -894,7 +891,7 @@
       </c>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:11" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -908,11 +905,8 @@
         <v>19</v>
       </c>
       <c r="F12" s="9"/>
-      <c r="G12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="13" spans="1:11" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -926,7 +920,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -938,7 +932,7 @@
       </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:11" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -950,7 +944,7 @@
       </c>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:11" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -963,7 +957,7 @@
       <c r="D16" s="2"/>
       <c r="K16" s="9"/>
     </row>
-    <row r="17" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -977,7 +971,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -989,7 +983,7 @@
       </c>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1001,7 +995,7 @@
       </c>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1013,7 +1007,7 @@
       </c>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1025,7 +1019,7 @@
       </c>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1037,7 +1031,7 @@
       </c>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1049,7 +1043,7 @@
       </c>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1061,7 +1055,7 @@
       </c>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1075,7 +1069,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1091,6 +1085,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="86" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="82" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>